--- a/medicine/Pharmacie/Tésamoréline/Tésamoréline.xlsx
+++ b/medicine/Pharmacie/Tésamoréline/Tésamoréline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T%C3%A9samor%C3%A9line</t>
+          <t>Tésamoréline</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La tésamoréline, vendue sous le nom de marque Egrifta[1].
+La tésamoréline, vendue sous le nom de marque Egrifta.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>T%C3%A9samor%C3%A9line</t>
+          <t>Tésamoréline</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Est un médicament utilisé pour traiter la lipodystrophie associée au VIH  [1]  , et plus particulièrement l'excès de graisse abdominale[2]. Elle est administrée par injection sous la peau[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Est un médicament utilisé pour traiter la lipodystrophie associée au VIH    , et plus particulièrement l'excès de graisse abdominale. Elle est administrée par injection sous la peau.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>T%C3%A9samor%C3%A9line</t>
+          <t>Tésamoréline</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires courants comprennent des douleurs articulaires, des rougeurs au site d'injection et un gonflement des jambes[1], d'autres effets secondaires peuvent inclure des réactions allergiques et le cancer [1]. L'utilisation pendant la grossesse peut nuire au fœtus[1]. Il s'agit d'une forme fabriquée de l'hormone de libération de l'hormone de croissance [1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires courants comprennent des douleurs articulaires, des rougeurs au site d'injection et un gonflement des jambes, d'autres effets secondaires peuvent inclure des réactions allergiques et le cancer . L'utilisation pendant la grossesse peut nuire au fœtus. Il s'agit d'une forme fabriquée de l'hormone de libération de l'hormone de croissance .
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>T%C3%A9samor%C3%A9line</t>
+          <t>Tésamoréline</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La tésamoréline a été approuvée pour un usage médical aux États-Unis en 2010[1]. Elle n'est pas approuvée en Europe[2]. Aux États-Unis, il en coûte environ 6 400 USD par mois à partir de 2021[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tésamoréline a été approuvée pour un usage médical aux États-Unis en 2010. Elle n'est pas approuvée en Europe. Aux États-Unis, il en coûte environ 6 400 USD par mois à partir de 2021.
 </t>
         </is>
       </c>
